--- a/results/mp/tinybert/corona/confidence/126/0.35/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/126/0.35/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="55">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,6 +43,9 @@
     <t>crude</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
@@ -52,61 +55,58 @@
     <t>sc</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>nice</t>
+    <t>great</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>thank</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>great</t>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>special</t>
   </si>
   <si>
     <t>free</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thank</t>
+    <t>support</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>well</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>fresh</t>
+    <t>better</t>
   </si>
   <si>
     <t>relief</t>
@@ -115,49 +115,70 @@
     <t>heroes</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
     <t>hand</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
     <t>protect</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
     <t>please</t>
   </si>
   <si>
-    <t>share</t>
-  </si>
-  <si>
     <t>store</t>
   </si>
   <si>
     <t>you</t>
   </si>
   <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
     <t>,</t>
   </si>
   <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>are</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
     <t>to</t>
   </si>
   <si>
+    <t>a</t>
+  </si>
+  <si>
     <t>.</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>the</t>
   </si>
 </sst>
 </file>
@@ -515,7 +536,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q34"/>
+  <dimension ref="A1:Q43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -523,10 +544,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -584,13 +605,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.88</v>
+        <v>0.9117647058823529</v>
       </c>
       <c r="C3">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D3">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -605,16 +626,16 @@
         <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K3">
-        <v>0.9583333333333334</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L3">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="M3">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -626,7 +647,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -634,13 +655,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.6883116883116883</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="C4">
-        <v>106</v>
+        <v>26</v>
       </c>
       <c r="D4">
-        <v>106</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -652,19 +673,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K4">
-        <v>0.9444444444444444</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L4">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="M4">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -676,7 +697,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -684,13 +705,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.3605150214592275</v>
+        <v>0.613013698630137</v>
       </c>
       <c r="C5">
-        <v>84</v>
+        <v>179</v>
       </c>
       <c r="D5">
-        <v>84</v>
+        <v>179</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -702,19 +723,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>149</v>
+        <v>113</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K5">
-        <v>0.9375</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="L5">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="M5">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -726,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -734,13 +755,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.2558139534883721</v>
+        <v>0.2248062015503876</v>
       </c>
       <c r="C6">
-        <v>22</v>
+        <v>116</v>
       </c>
       <c r="D6">
-        <v>22</v>
+        <v>116</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -752,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>64</v>
+        <v>400</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K6">
-        <v>0.9375</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L6">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="M6">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -776,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -784,163 +805,115 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.225</v>
+        <v>0.2116402116402116</v>
       </c>
       <c r="C7">
+        <v>40</v>
+      </c>
+      <c r="D7">
+        <v>40</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>149</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D7">
+      <c r="K7">
+        <v>0.7948717948717948</v>
+      </c>
+      <c r="L7">
+        <v>31</v>
+      </c>
+      <c r="M7">
+        <v>31</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="J8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8">
+        <v>0.78125</v>
+      </c>
+      <c r="L8">
+        <v>100</v>
+      </c>
+      <c r="M8">
+        <v>100</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="J9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9">
+        <v>0.7804878048780488</v>
+      </c>
+      <c r="L9">
+        <v>64</v>
+      </c>
+      <c r="M9">
+        <v>64</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9">
         <v>18</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>62</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K7">
-        <v>0.9</v>
-      </c>
-      <c r="L7">
-        <v>36</v>
-      </c>
-      <c r="M7">
-        <v>36</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8">
-        <v>0.1555555555555556</v>
-      </c>
-      <c r="C8">
-        <v>21</v>
-      </c>
-      <c r="D8">
-        <v>21</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>114</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K8">
-        <v>0.8627450980392157</v>
-      </c>
-      <c r="L8">
-        <v>44</v>
-      </c>
-      <c r="M8">
-        <v>44</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>0.1363636363636364</v>
-      </c>
-      <c r="C9">
-        <v>15</v>
-      </c>
-      <c r="D9">
-        <v>15</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>95</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K9">
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="L9">
-        <v>48</v>
-      </c>
-      <c r="M9">
-        <v>48</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K10">
-        <v>0.8518518518518519</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L10">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="M10">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -952,21 +925,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K11">
-        <v>0.8333333333333334</v>
+        <v>0.7253521126760564</v>
       </c>
       <c r="L11">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="M11">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -978,21 +951,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>9</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K12">
-        <v>0.8275862068965517</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L12">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M12">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1004,21 +977,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K13">
+        <v>0.7222222222222222</v>
+      </c>
+      <c r="L13">
         <v>26</v>
       </c>
-      <c r="K13">
-        <v>0.8235294117647058</v>
-      </c>
-      <c r="L13">
-        <v>42</v>
-      </c>
       <c r="M13">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1030,21 +1003,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K14">
-        <v>0.76</v>
+        <v>0.7166666666666667</v>
       </c>
       <c r="L14">
-        <v>19</v>
+        <v>86</v>
       </c>
       <c r="M14">
-        <v>19</v>
+        <v>86</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1056,21 +1029,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>6</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K15">
-        <v>0.7413793103448276</v>
+        <v>0.7075471698113207</v>
       </c>
       <c r="L15">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="M15">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1082,21 +1055,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>15</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K16">
-        <v>0.7123287671232876</v>
+        <v>0.68125</v>
       </c>
       <c r="L16">
-        <v>52</v>
+        <v>109</v>
       </c>
       <c r="M16">
-        <v>52</v>
+        <v>109</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1108,21 +1081,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>21</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K17">
-        <v>0.6923076923076923</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="L17">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="M17">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1134,21 +1107,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>8</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K18">
-        <v>0.64</v>
+        <v>0.6274509803921569</v>
       </c>
       <c r="L18">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="M18">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1160,21 +1133,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K19">
-        <v>0.625</v>
+        <v>0.6031746031746031</v>
       </c>
       <c r="L19">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="M19">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1186,21 +1159,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K20">
-        <v>0.6153846153846154</v>
+        <v>0.6</v>
       </c>
       <c r="L20">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="M20">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1212,21 +1185,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K21">
-        <v>0.6060606060606061</v>
+        <v>0.5531914893617021</v>
       </c>
       <c r="L21">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="M21">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1238,21 +1211,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K22">
-        <v>0.5446009389671361</v>
+        <v>0.5483028720626631</v>
       </c>
       <c r="L22">
-        <v>116</v>
+        <v>210</v>
       </c>
       <c r="M22">
-        <v>116</v>
+        <v>210</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1264,21 +1237,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>97</v>
+        <v>173</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K23">
-        <v>0.5416666666666666</v>
+        <v>0.4852941176470588</v>
       </c>
       <c r="L23">
-        <v>78</v>
+        <v>165</v>
       </c>
       <c r="M23">
-        <v>78</v>
+        <v>165</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1290,21 +1263,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>66</v>
+        <v>175</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K24">
-        <v>0.5333333333333333</v>
+        <v>0.4831460674157304</v>
       </c>
       <c r="L24">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="M24">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1316,21 +1289,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>14</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K25">
-        <v>0.4961240310077519</v>
+        <v>0.4769230769230769</v>
       </c>
       <c r="L25">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="M25">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1342,21 +1315,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>65</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K26">
-        <v>0.4285714285714285</v>
+        <v>0.4508474576271186</v>
       </c>
       <c r="L26">
-        <v>15</v>
+        <v>133</v>
       </c>
       <c r="M26">
-        <v>15</v>
+        <v>133</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1368,21 +1341,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>20</v>
+        <v>162</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K27">
-        <v>0.4054054054054054</v>
+        <v>0.4375</v>
       </c>
       <c r="L27">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="M27">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1394,21 +1367,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>22</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K28">
-        <v>0.391304347826087</v>
+        <v>0.4246575342465753</v>
       </c>
       <c r="L28">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="M28">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1420,21 +1393,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>56</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K29">
-        <v>0.3684210526315789</v>
+        <v>0.3598326359832636</v>
       </c>
       <c r="L29">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="M29">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1446,21 +1419,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>24</v>
+        <v>153</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K30">
-        <v>0.04146341463414634</v>
+        <v>0.04921700223713647</v>
       </c>
       <c r="L30">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="M30">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1472,21 +1445,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>393</v>
+        <v>850</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K31">
-        <v>0.03947368421052631</v>
+        <v>0.0325</v>
       </c>
       <c r="L31">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="M31">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1498,21 +1471,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>438</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K32">
-        <v>0.01678657074340528</v>
+        <v>0.02996670366259711</v>
       </c>
       <c r="L32">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="M32">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1524,59 +1497,293 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>820</v>
+        <v>874</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K33">
-        <v>0.01089449541284404</v>
+        <v>0.02732793522267207</v>
       </c>
       <c r="L33">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="M33">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="N33">
-        <v>0.9</v>
+        <v>0.96</v>
       </c>
       <c r="O33">
-        <v>0.09999999999999998</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P33" t="b">
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>1725</v>
+        <v>961</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K34">
+        <v>0.02246349681767128</v>
+      </c>
+      <c r="L34">
+        <v>60</v>
+      </c>
+      <c r="M34">
+        <v>62</v>
+      </c>
+      <c r="N34">
+        <v>0.97</v>
+      </c>
+      <c r="O34">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P34" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q34">
+        <v>2611</v>
+      </c>
+    </row>
+    <row r="35" spans="10:17">
+      <c r="J35" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K35">
+        <v>0.0196319018404908</v>
+      </c>
+      <c r="L35">
+        <v>48</v>
+      </c>
+      <c r="M35">
+        <v>48</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>2397</v>
+      </c>
+    </row>
+    <row r="36" spans="10:17">
+      <c r="J36" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="K34">
-        <v>0.008872651356993737</v>
-      </c>
-      <c r="L34">
-        <v>17</v>
-      </c>
-      <c r="M34">
-        <v>17</v>
-      </c>
-      <c r="N34">
-        <v>1</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>1899</v>
+      <c r="K36">
+        <v>0.01947236180904523</v>
+      </c>
+      <c r="L36">
+        <v>31</v>
+      </c>
+      <c r="M36">
+        <v>33</v>
+      </c>
+      <c r="N36">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O36">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P36" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q36">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="37" spans="10:17">
+      <c r="J37" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K37">
+        <v>0.01945525291828794</v>
+      </c>
+      <c r="L37">
+        <v>25</v>
+      </c>
+      <c r="M37">
+        <v>29</v>
+      </c>
+      <c r="N37">
+        <v>0.86</v>
+      </c>
+      <c r="O37">
+        <v>0.14</v>
+      </c>
+      <c r="P37" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q37">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="38" spans="10:17">
+      <c r="J38" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K38">
+        <v>0.01641414141414142</v>
+      </c>
+      <c r="L38">
+        <v>39</v>
+      </c>
+      <c r="M38">
+        <v>42</v>
+      </c>
+      <c r="N38">
+        <v>0.93</v>
+      </c>
+      <c r="O38">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P38" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q38">
+        <v>2337</v>
+      </c>
+    </row>
+    <row r="39" spans="10:17">
+      <c r="J39" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K39">
+        <v>0.01526011560693642</v>
+      </c>
+      <c r="L39">
+        <v>66</v>
+      </c>
+      <c r="M39">
+        <v>69</v>
+      </c>
+      <c r="N39">
+        <v>0.96</v>
+      </c>
+      <c r="O39">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P39" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q39">
+        <v>4259</v>
+      </c>
+    </row>
+    <row r="40" spans="10:17">
+      <c r="J40" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K40">
+        <v>0.01518438177874186</v>
+      </c>
+      <c r="L40">
+        <v>35</v>
+      </c>
+      <c r="M40">
+        <v>39</v>
+      </c>
+      <c r="N40">
+        <v>0.9</v>
+      </c>
+      <c r="O40">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="P40" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q40">
+        <v>2270</v>
+      </c>
+    </row>
+    <row r="41" spans="10:17">
+      <c r="J41" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K41">
+        <v>0.01301561874249099</v>
+      </c>
+      <c r="L41">
+        <v>65</v>
+      </c>
+      <c r="M41">
+        <v>67</v>
+      </c>
+      <c r="N41">
+        <v>0.97</v>
+      </c>
+      <c r="O41">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P41" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q41">
+        <v>4929</v>
+      </c>
+    </row>
+    <row r="42" spans="10:17">
+      <c r="J42" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K42">
+        <v>0.01160541586073501</v>
+      </c>
+      <c r="L42">
+        <v>36</v>
+      </c>
+      <c r="M42">
+        <v>41</v>
+      </c>
+      <c r="N42">
+        <v>0.88</v>
+      </c>
+      <c r="O42">
+        <v>0.12</v>
+      </c>
+      <c r="P42" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q42">
+        <v>3066</v>
+      </c>
+    </row>
+    <row r="43" spans="10:17">
+      <c r="J43" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K43">
+        <v>0.01007166376137904</v>
+      </c>
+      <c r="L43">
+        <v>52</v>
+      </c>
+      <c r="M43">
+        <v>54</v>
+      </c>
+      <c r="N43">
+        <v>0.96</v>
+      </c>
+      <c r="O43">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P43" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q43">
+        <v>5111</v>
       </c>
     </row>
   </sheetData>
